--- a/Results/Structure.xlsx
+++ b/Results/Structure.xlsx
@@ -555,7 +555,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -615,49 +615,49 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0.2</v>
       </c>
       <c r="E2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0.5</v>
       </c>
       <c r="J2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -668,31 +668,31 @@
         <v>0.01</v>
       </c>
       <c r="C3">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.94499999999999995</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>1.19</v>
       </c>
       <c r="H3">
-        <v>1.4350000000000001</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>1.68</v>
       </c>
       <c r="J3">
-        <v>1.925</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>2.17</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>2.415</v>
@@ -701,13 +701,13 @@
         <v>2.66</v>
       </c>
       <c r="N3">
-        <v>2.9049999999999998</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>3.395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -715,49 +715,49 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0.3</v>
       </c>
       <c r="D4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0.3</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0.6</v>
       </c>
       <c r="N4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0.2</v>
       </c>
       <c r="P4">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -801,13 +801,13 @@
         <v>0.6</v>
       </c>
       <c r="N5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -815,10 +815,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0.7</v>
@@ -854,10 +854,10 @@
         <v>0.1</v>
       </c>
       <c r="O6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -871,13 +871,13 @@
         <v>0.3</v>
       </c>
       <c r="D7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -915,19 +915,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0.7</v>
       </c>
       <c r="E8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0.2</v>
@@ -936,7 +936,7 @@
         <v>0.5</v>
       </c>
       <c r="I8">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0.8</v>
@@ -948,16 +948,16 @@
         <v>0.2</v>
       </c>
       <c r="M8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0.1</v>
       </c>
       <c r="P8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -968,43 +968,43 @@
         <v>0.2</v>
       </c>
       <c r="C9">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0.3</v>
       </c>
       <c r="H9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0.1</v>
       </c>
       <c r="O9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0.3</v>
@@ -1015,10 +1015,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0.7</v>
@@ -1027,10 +1027,10 @@
         <v>0.5</v>
       </c>
       <c r="F10">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0.5</v>
@@ -1039,25 +1039,25 @@
         <v>0.7</v>
       </c>
       <c r="J10">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1071,19 +1071,19 @@
         <v>0.3</v>
       </c>
       <c r="D11">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0.2</v>
       </c>
       <c r="G11">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0.5</v>
@@ -1095,19 +1095,19 @@
         <v>0.3</v>
       </c>
       <c r="L11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0.6</v>
       </c>
       <c r="N11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0.2</v>
       </c>
       <c r="P11">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1115,31 +1115,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0.1</v>
@@ -1148,13 +1148,13 @@
         <v>0.2</v>
       </c>
       <c r="M12">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0.1</v>
       </c>
       <c r="O12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0.2</v>
@@ -1165,49 +1165,49 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0.3</v>
       </c>
       <c r="D13">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0.1</v>
       </c>
       <c r="F13">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0.4</v>
       </c>
       <c r="I13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0.6</v>
       </c>
       <c r="N13">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O13">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1215,49 +1215,49 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0.7</v>
       </c>
       <c r="E14">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0.8</v>
       </c>
       <c r="K14">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0.1</v>
       </c>
       <c r="P14">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1265,31 +1265,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0.2</v>
       </c>
       <c r="E15">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0.2</v>
       </c>
       <c r="G15">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0.5</v>
       </c>
       <c r="J15">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0.3</v>
@@ -1298,13 +1298,13 @@
         <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0.3</v>
@@ -1318,19 +1318,19 @@
         <v>0.7</v>
       </c>
       <c r="C16">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>0.5</v>
@@ -1339,25 +1339,25 @@
         <v>0.7</v>
       </c>
       <c r="J16">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0.1</v>
       </c>
       <c r="O16">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1365,16 +1365,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>0.3</v>
       </c>
       <c r="D17">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0.2</v>
@@ -1386,28 +1386,28 @@
         <v>0.4</v>
       </c>
       <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
         <v>0.5</v>
       </c>
-      <c r="J17">
-        <v>0.4</v>
-      </c>
-      <c r="K17">
-        <v>0.3</v>
-      </c>
-      <c r="L17">
-        <v>0.5</v>
-      </c>
-      <c r="M17">
-        <v>0.6</v>
-      </c>
-      <c r="N17">
-        <v>0.1</v>
-      </c>
       <c r="O17">
         <v>0.2</v>
       </c>
       <c r="P17">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1418,25 +1418,25 @@
         <v>0.2</v>
       </c>
       <c r="C18">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0.5</v>
       </c>
       <c r="F18">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0.8</v>
@@ -1445,16 +1445,16 @@
         <v>0.1</v>
       </c>
       <c r="L18">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0.1</v>
       </c>
       <c r="O18">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0.2</v>
